--- a/datasets/3-3-5.xlsx
+++ b/datasets/3-3-5.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahmu\Downloads\ods3-datasets-master\3.3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED8FA5E-23B2-4BA3-A845-96B9F1DC308F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="48" windowWidth="13332" windowHeight="4200" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -16,14 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
-    <t>
-                    Indicador 3.3.5 - Número de pessoas que necessitam de intervenção contra doenças tropicais negligenciadas (DTN)
-                </t>
-  </si>
-  <si>
-    <t>
-                    Número de pessoas que necessitam de intervenção contra doenças tropicais negligenciadas (DTN)
-                </t>
+    <t>Indicador 3.3.5 - Número de pessoas que necessitam de intervenção contra doenças tropicais negligenciadas (DTN)</t>
+  </si>
+  <si>
+    <t>Número de pessoas que necessitam de intervenção contra doenças tropicais negligenciadas (DTN)</t>
   </si>
   <si>
     <t>Brasil, Grandes Regiões e Unidades da Federação</t>
@@ -140,28 +142,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <color indexed="64"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <color rgb="FFFFFFFF"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <color rgb="FF333333"/>
     </font>
   </fonts>
   <fills count="5">
@@ -217,19 +219,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -237,433 +242,713 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+  <a:themeElements>
+    <a:clrScheme name="Office 2007 - 2010">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office 2007 - 2010">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office 2007 - 2010">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="10"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v/>
-      </c>
-      <c r="C1" s="1">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v/>
-      </c>
-      <c r="C2" s="2">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>1285370</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>2556446</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>193313</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>217375</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>2690</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>2669</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>14306</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>17062</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>83947</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>85800</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>12075</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>13779</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>48877</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>50280</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>24473</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>30214</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>6943</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>17570</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>741748</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>873657</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>112474</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>107097</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>5364</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>11018</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>25635</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>37189</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>140020</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>147366</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>26991</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>35374</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>81254</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>105819</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>99819</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>117569</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>162839</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>169574</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s" s="3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>87349</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>142647</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>165851</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>1106315</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>99766</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>547575</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s" s="3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>12304</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>66091</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>22724</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>38817</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>31056</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>453831</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s" s="3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>60656</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>107176</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>54144</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>96944</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="2">
         <v>5157</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>7259</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s" s="3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2">
         <v>1354</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="2">
         <v>2973</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s" s="3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>122061</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>250324</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s" s="3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <v>6836</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
         <v>66421</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s" s="3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2">
         <v>15585</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>19198</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <v>95095</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="2">
         <v>124191</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>4545</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>40514</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s" s="3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="3">
-        <v/>
-      </c>
-      <c r="C37" s="3">
-        <v/>
-      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A37:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
